--- a/medicine/Mort/Cimetière_de_Kalevankangas/Cimetière_de_Kalevankangas.xlsx
+++ b/medicine/Mort/Cimetière_de_Kalevankangas/Cimetière_de_Kalevankangas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kalevankangas</t>
+          <t>Cimetière_de_Kalevankangas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Kalevankangas (finnois : Kalevankankaan hautausmaa) est situé sur la moraine de Kalevankangas dans le quartier de Kaleva à Tampere en Finlande[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Kalevankangas (finnois : Kalevankankaan hautausmaa) est situé sur la moraine de Kalevankangas dans le quartier de Kaleva à Tampere en Finlande,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kalevankangas</t>
+          <t>Cimetière_de_Kalevankangas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière créé le 25 juillet 1880 a une superficie d'environ 17 hectares. L'entrée principale du cimetière est conçue par Bertel Strömmer.
 La chapelle du cimetière conçue par Wäinö Gustaf Palmqvist et Einar Sjöström est inaugurée en 1912.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kalevankangas</t>
+          <t>Cimetière_de_Kalevankangas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant la bataille de Tampere, Kalevankangas a été le théâtre de nombreux combats. 
 Le premier objectif de la Garde blanche avait été de prendre Kalevankangas, la zone des casernes et le cimetière. 
@@ -553,7 +569,7 @@
 Les Gardes rouges étaient protégés par les pierres tombales et les vétérans blancs se souviendront plus tard qu'il semblait presque impossible de les atteindre. 
 La bataille de Tampere fut la bataille la plus sanglante de toute la guerre civile finlandaise et la plus sanglante de l'histoire finlandaise à cette époque. 
 Le cimetière de Kalevankangas abrite encore des pierres tombales brisées ou percées de balles. 
-Les Gardes rouges tués et ceux qui sont morts plus tard dans le Camp de prisonniers de Tampere ont été enterrés dans une fosse commune de 2 700 personnes[3],[2],[4].
+Les Gardes rouges tués et ceux qui sont morts plus tard dans le Camp de prisonniers de Tampere ont été enterrés dans une fosse commune de 2 700 personnes.
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kalevankangas</t>
+          <t>Cimetière_de_Kalevankangas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Emil Aaltonen
